--- a/medicine/Mort/Terrorisme_en_1976/Terrorisme_en_1976.xlsx
+++ b/medicine/Mort/Terrorisme_en_1976/Terrorisme_en_1976.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,21 +520,85 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-5 janvier, Irlande du Nord : l'attaque d'un minibus de transport d'ouvriers à Kingsmill, dans le comté d'Armagh, par la South Armagh Republican Action Force[n 1] fait dix morts.
-Février
-Mars
-Avril
-Mai
-Juin
-5 juin, Irlande du Nord : l'attaque d'un bar à Belfast par l'Ulster Volunteer Force fait cinq morts[réf. souhaitée][1].
-Juillet
-Août
-Septembre
-Octobre
-6 octobre 1976, Cuba : le terroriste anti-castriste Luis Posada Carriles fait exploser un avion cubain en provenance de la Barbade, à bord duquel se trouvaient une équipe de sportifs cubains. Les soixante-treize personnes présentes à bord sont tuées[2].
-Novembre
-Décembre</t>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5 janvier, Irlande du Nord : l'attaque d'un minibus de transport d'ouvriers à Kingsmill, dans le comté d'Armagh, par la South Armagh Republican Action Force[n 1] fait dix morts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1976</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1976</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 juin, Irlande du Nord : l'attaque d'un bar à Belfast par l'Ulster Volunteer Force fait cinq morts[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1976</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1976</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 octobre 1976, Cuba : le terroriste anti-castriste Luis Posada Carriles fait exploser un avion cubain en provenance de la Barbade, à bord duquel se trouvaient une équipe de sportifs cubains. Les soixante-treize personnes présentes à bord sont tuées.</t>
         </is>
       </c>
     </row>
